--- a/data/trans_camb/P62-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P62-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -11,74</t>
+          <t>-35,45; -10,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 0,13</t>
+          <t>-22,23; 0,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 1,47</t>
+          <t>-19,57; 2,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -2,55</t>
+          <t>-28,34; -0,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 5,4</t>
+          <t>-23,4; 5,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 14,71</t>
+          <t>-9,06; 15,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -10,54</t>
+          <t>-30,55; -10,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,81; -1,55</t>
+          <t>-20,01; -0,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; 4,8</t>
+          <t>-13,15; 4,18</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,84; -16,39</t>
+          <t>-44,37; -15,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,01; -0,03</t>
+          <t>-26,91; 1,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 2,2</t>
+          <t>-24,25; 2,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,86; -5,07</t>
+          <t>-53,71; -1,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 14,79</t>
+          <t>-42,05; 13,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 37,88</t>
+          <t>-16,7; 42,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,5; -18,76</t>
+          <t>-44,4; -17,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,09; -2,75</t>
+          <t>-29,49; -1,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 8,26</t>
+          <t>-19,03; 7,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-32,88; -8,28</t>
+          <t>-32,54; -9,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,92; -8,6</t>
+          <t>-32,57; -9,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 2,39</t>
+          <t>-17,7; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 13,4</t>
+          <t>-6,12; 13,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 12,15</t>
+          <t>-7,86; 11,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,27; 38,08</t>
+          <t>17,16; 37,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 5,14</t>
+          <t>-12,91; 4,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 2,06</t>
+          <t>-15,1; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,17; 25,49</t>
+          <t>8,4; 24,64</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,88; -11,92</t>
+          <t>-38,01; -13,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,92; -11,42</t>
+          <t>-38,32; -12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 3,16</t>
+          <t>-20,78; 3,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 104,57</t>
+          <t>-26,19; 102,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 90,03</t>
+          <t>-31,13; 84,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,84; 293,31</t>
+          <t>67,1; 281,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 13,1</t>
+          <t>-25,81; 10,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 4,09</t>
+          <t>-31,67; 4,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,8; 65,66</t>
+          <t>17,04; 64,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -11,52</t>
+          <t>-30,0; -11,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -6,48</t>
+          <t>-24,2; -6,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 8,3</t>
+          <t>-9,19; 8,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 32,16</t>
+          <t>10,43; 33,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 44,1</t>
+          <t>16,08; 42,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 45,53</t>
+          <t>23,85; 45,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 4,69</t>
+          <t>-10,66; 5,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,9</t>
+          <t>-4,41; 11,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 23,42</t>
+          <t>7,59; 22,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -16,72</t>
+          <t>-37,8; -17,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,38; -9,47</t>
+          <t>-30,82; -10,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 11,87</t>
+          <t>-11,79; 13,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,59; 249,32</t>
+          <t>39,57; 252,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,44; 325,89</t>
+          <t>66,75; 322,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,83; 359,81</t>
+          <t>93,87; 350,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 10,13</t>
+          <t>-18,74; 10,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 25,26</t>
+          <t>-7,5; 25,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,32; 50,2</t>
+          <t>12,98; 47,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-26,12; -14,49</t>
+          <t>-25,88; -14,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,76; -10,66</t>
+          <t>-22,19; -10,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 0,3</t>
+          <t>-13,61; -0,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 3,87</t>
+          <t>-8,67; 3,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 10,04</t>
+          <t>-1,9; 10,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 59,21</t>
+          <t>7,55; 58,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,98; -7,18</t>
+          <t>-15,87; -6,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -1,96</t>
+          <t>-10,87; -2,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 26,82</t>
+          <t>-1,17; 28,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,14; -21,77</t>
+          <t>-36,57; -21,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -15,95</t>
+          <t>-30,65; -16,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 0,33</t>
+          <t>-18,78; 0,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 15,87</t>
+          <t>-28,36; 16,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 41,28</t>
+          <t>-6,33; 44,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,16; 233,95</t>
+          <t>26,19; 233,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,78; -14,62</t>
+          <t>-29,88; -14,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -4,24</t>
+          <t>-20,47; -4,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 55,9</t>
+          <t>-2,23; 58,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 1,91</t>
+          <t>-15,9; 1,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 4,33</t>
+          <t>-14,55; 4,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 18,45</t>
+          <t>-0,55; 18,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,2; 16,85</t>
+          <t>4,55; 17,09</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,38</t>
+          <t>4,1; 17,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,01; 25,36</t>
+          <t>13,28; 25,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,35; 11,02</t>
+          <t>-0,63; 10,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 11,81</t>
+          <t>1,25; 11,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,06; 21,19</t>
+          <t>11,09; 21,77</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 4,38</t>
+          <t>-28,4; 3,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 9,03</t>
+          <t>-24,73; 10,53</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 41,08</t>
+          <t>-0,85; 41,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,35; 68,47</t>
+          <t>13,59; 68,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,83; 65,11</t>
+          <t>11,94; 69,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>40,49; 106,92</t>
+          <t>39,28; 100,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,91; 33,94</t>
+          <t>-1,67; 31,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,33; 36,82</t>
+          <t>2,86; 35,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>28,42; 66,0</t>
+          <t>28,13; 68,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,81</t>
+          <t>-0,94; 6,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,45</t>
+          <t>-3,3; 2,32</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,97</t>
+          <t>-2,36; 5,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,94</t>
+          <t>-0,92; 6,05</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 5,56</t>
+          <t>-2,11; 5,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,3</t>
+          <t>0,56; 7,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,75</t>
+          <t>-0,3; 5,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,94</t>
+          <t>-1,96; 3,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,58</t>
+          <t>-0,52; 5,58</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 315,22</t>
+          <t>-28,72; 323,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-71,63; 127,6</t>
+          <t>-69,91; 115,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 228,9</t>
+          <t>-52,71; 218,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 29,37</t>
+          <t>-3,92; 29,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 27,06</t>
+          <t>-9,22; 25,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,91; 36,35</t>
+          <t>2,65; 37,03</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 33,33</t>
+          <t>-1,38; 31,81</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 23,08</t>
+          <t>-9,8; 23,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 32,99</t>
+          <t>-2,78; 32,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -7,23</t>
+          <t>-13,69; -6,91</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,48; -4,64</t>
+          <t>-11,53; -4,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 4,73</t>
+          <t>-3,16; 5,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,03</t>
+          <t>1,87; 7,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,0</t>
+          <t>2,92; 8,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,24; 34,98</t>
+          <t>12,15; 35,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,99</t>
+          <t>-1,92; 2,22</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,95</t>
+          <t>-0,18; 3,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,92; 24,38</t>
+          <t>9,15; 22,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,0; -13,75</t>
+          <t>-24,2; -13,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,18; -8,8</t>
+          <t>-20,3; -9,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 8,97</t>
+          <t>-5,62; 10,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,23; 30,23</t>
+          <t>7,09; 30,92</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>10,67; 34,07</t>
+          <t>11,32; 35,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>48,27; 146,24</t>
+          <t>48,19; 145,6</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 5,78</t>
+          <t>-5,21; 6,54</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 11,46</t>
+          <t>-0,49; 11,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>24,72; 70,12</t>
+          <t>25,35; 61,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P62-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
